--- a/readme/setting_201811.xlsx
+++ b/readme/setting_201811.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4527" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4533" uniqueCount="1402">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5814,6 +5814,22 @@
   </si>
   <si>
     <t>구현함-로그인 로그 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_WEEK_PER_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일당 가능한 학습 주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO SETTING VALUES(20,'MAX_WEEK_PER_DAY','6','1일당 가능한 학습 주차');</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6817,7 +6833,7 @@
   <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6841,6 +6857,9 @@
       </c>
       <c r="C2" s="128" t="s">
         <v>1367</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -24937,10 +24956,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -24950,6 +24969,11 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="82"/>
     </row>
@@ -33228,8 +33252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -33756,6 +33780,31 @@
         <v>INSERT INTO SETTING VALUES(19,'BIRTH_TO_YEAR','2000','생일 종료연도');</v>
       </c>
     </row>
+    <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="57" t="str">
+        <f t="shared" ref="F22" si="8">"INSERT INTO SETTING VALUES("&amp;A22&amp;",'"&amp;B22&amp;"','"&amp;C22&amp;"','"&amp;E22&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(20,'MAX_WEEK_PER_DAY','6','1일당 가능한 학습 주차');</v>
+      </c>
+      <c r="G22" s="57" t="str">
+        <f t="shared" ref="G22" si="9">"INSERT INTO SETTING VALUES("&amp;A22&amp;",'"&amp;B22&amp;"','"&amp;D22&amp;"','"&amp;E22&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(20,'MAX_WEEK_PER_DAY','6','1일당 가능한 학습 주차');</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>

--- a/readme/setting_201811.xlsx
+++ b/readme/setting_201811.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4715" uniqueCount="1420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="1426">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5905,6 +5905,30 @@
   </si>
   <si>
     <t>USER_ID,SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_INTEREST_COURSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COURSE_ATTENDANCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTENDANCE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COURSE_ID,USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과정출석로그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7617,13 +7641,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R707"/>
+  <dimension ref="A1:R719"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B699" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G233" sqref="G233:G243"/>
+      <selection pane="bottomRight" activeCell="G716" sqref="G716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -25786,7 +25810,7 @@
         <v>23</v>
       </c>
       <c r="G706" s="13" t="str">
-        <f t="shared" ref="G706:G707" si="58">IF(F706=0,"CREATE TABLE "&amp;A706&amp;" ( ",IF(F706=100,C706&amp;" );",IF(F706=200,"ALTER TABLE "&amp;A706&amp;" ADD INDEX "&amp;A706&amp;"_IDX"&amp;C706&amp;"("&amp;D706&amp;");",C706&amp;" "&amp;D706&amp;", ")))</f>
+        <f t="shared" ref="G706:G711" si="58">IF(F706=0,"CREATE TABLE "&amp;A706&amp;" ( ",IF(F706=100,C706&amp;" );",IF(F706=200,"ALTER TABLE "&amp;A706&amp;" ADD INDEX "&amp;A706&amp;"_IDX"&amp;C706&amp;"("&amp;D706&amp;");",C706&amp;" "&amp;D706&amp;", ")))</f>
         <v xml:space="preserve">UPDATE_DATE DATETIME, </v>
       </c>
       <c r="H706" s="13"/>
@@ -25811,6 +25835,292 @@
         <f t="shared" si="58"/>
         <v>PRIMARY KEY(COMP_CD,COURSE_ID) );</v>
       </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A708" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B708" s="43" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C708" s="36"/>
+      <c r="D708" s="13"/>
+      <c r="E708" s="13"/>
+      <c r="F708" s="13">
+        <v>0</v>
+      </c>
+      <c r="G708" s="13" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">CREATE TABLE USER_INTEREST_COURSE ( </v>
+      </c>
+      <c r="H708" s="13"/>
+      <c r="I708" s="26"/>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A709" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B709" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="C709" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D709" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E709" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F709" s="13">
+        <v>1</v>
+      </c>
+      <c r="G709" s="13" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">SEQ INT NOT NULL auto_increment, </v>
+      </c>
+      <c r="H709" s="13"/>
+      <c r="I709" s="26"/>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A710" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B710" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="C710" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D710" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E710" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F710" s="13">
+        <v>2</v>
+      </c>
+      <c r="G710" s="13" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">USER_ID VARCHAR(15), </v>
+      </c>
+      <c r="H710" s="13"/>
+      <c r="I710" s="26"/>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A711" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B711" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="C711" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D711" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E711" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F711" s="13">
+        <v>3</v>
+      </c>
+      <c r="G711" s="13" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve">COURSE_ID INT, </v>
+      </c>
+      <c r="H711" s="13"/>
+      <c r="I711" s="26"/>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A712" s="19" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B712" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="C712" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D712" s="13"/>
+      <c r="E712" s="13"/>
+      <c r="F712" s="13">
+        <v>100</v>
+      </c>
+      <c r="G712" s="13" t="str">
+        <f t="shared" ref="G712:G719" si="59">IF(F712=0,"CREATE TABLE "&amp;A712&amp;" ( ",IF(F712=100,C712&amp;" );",IF(F712=200,"ALTER TABLE "&amp;A712&amp;" ADD INDEX "&amp;A712&amp;"_IDX"&amp;C712&amp;"("&amp;D712&amp;");",C712&amp;" "&amp;D712&amp;", ")))</f>
+        <v>PRIMARY KEY(SEQ) );</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A713" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B713" s="43" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C713" s="39"/>
+      <c r="D713" s="13"/>
+      <c r="E713" s="13"/>
+      <c r="F713" s="13">
+        <v>0</v>
+      </c>
+      <c r="G713" s="13" t="str">
+        <f t="shared" ref="G713:G714" si="60">IF(F713=0,"CREATE TABLE "&amp;A713&amp;" ( ",IF(F713=100,C713&amp;" );",IF(F713=200,"ALTER TABLE "&amp;A713&amp;" ADD INDEX "&amp;A713&amp;"_IDX"&amp;C713&amp;"("&amp;D713&amp;");",C713&amp;" "&amp;D713&amp;", ")))</f>
+        <v xml:space="preserve">CREATE TABLE COURSE_ATTENDANCE ( </v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A714" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B714" s="43" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C714" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D714" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E714" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F714" s="13">
+        <v>1</v>
+      </c>
+      <c r="G714" s="13" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve">SEQ INT NOT NULL auto_increment, </v>
+      </c>
+      <c r="H714" s="13"/>
+      <c r="I714" s="26"/>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A715" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B715" s="43" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C715" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D715" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E715" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F715" s="13">
+        <v>2</v>
+      </c>
+      <c r="G715" s="13" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">COURSE_ID INT, </v>
+      </c>
+      <c r="H715" s="13"/>
+      <c r="I715" s="26"/>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A716" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B716" s="43" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C716" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D716" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E716" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F716" s="13">
+        <v>3</v>
+      </c>
+      <c r="G716" s="13" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">USER_ID VARCHAR(15), </v>
+      </c>
+      <c r="H716" s="13"/>
+      <c r="I716" s="26"/>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A717" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B717" s="43" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C717" s="36" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D717" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E717" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F717" s="13">
+        <v>4</v>
+      </c>
+      <c r="G717" s="13" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">ATTENDANCE_DATE DATETIME, </v>
+      </c>
+      <c r="H717" s="13"/>
+      <c r="I717" s="26"/>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A718" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B718" s="43" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C718" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D718" s="13"/>
+      <c r="E718" s="13"/>
+      <c r="F718" s="13">
+        <v>100</v>
+      </c>
+      <c r="G718" s="13" t="str">
+        <f t="shared" si="59"/>
+        <v>PRIMARY KEY(SEQ) );</v>
+      </c>
+      <c r="H718" s="13"/>
+      <c r="I718" s="26"/>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A719" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B719" s="43" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C719" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="D719" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E719" s="13"/>
+      <c r="F719" s="13">
+        <v>200</v>
+      </c>
+      <c r="G719" s="13" t="str">
+        <f t="shared" si="59"/>
+        <v>ALTER TABLE COURSE_ATTENDANCE ADD INDEX COURSE_ATTENDANCE_IDX1(COURSE_ID,USER_ID);</v>
+      </c>
+      <c r="H719" s="26"/>
+      <c r="I719" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>

--- a/readme/setting_201811.xlsx
+++ b/readme/setting_201811.xlsx
@@ -7653,10 +7653,10 @@
   <dimension ref="A1:R728"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E202" sqref="E202"/>
+      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>

--- a/readme/setting_201811.xlsx
+++ b/readme/setting_201811.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="6945" tabRatio="727" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22080" windowHeight="6945" tabRatio="727" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="협의사항" sheetId="42" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4832" uniqueCount="1447">
   <si>
     <t>USE_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5993,6 +5993,22 @@
   </si>
   <si>
     <t>강좌오픈 종료여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_LGD_AUTH_RETURNURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qlearning.co.kr/guest/AuthOnlyReturnurl.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/guest/AuthOnlyReturnurl.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰 인증결과 수신 및 전달 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7704,7 +7720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R742"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B255" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -34881,16 +34897,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.875" style="14" customWidth="1"/>
     <col min="4" max="4" width="24.25" style="14" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
@@ -34978,11 +34994,11 @@
         <v>1116</v>
       </c>
       <c r="F4" s="43" t="str">
-        <f t="shared" ref="F4:F9" si="0">"INSERT INTO SETTING VALUES("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="F4:F10" si="0">"INSERT INTO SETTING VALUES("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;E4&amp;"');"</f>
         <v>INSERT INTO SETTING VALUES(2,'g_configPath','/home/hosting_users/qlearning/lgdacom','conf 파일 root');</v>
       </c>
       <c r="G4" s="43" t="str">
-        <f t="shared" ref="G4:G9" si="1">"INSERT INTO SETTING VALUES("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"');"</f>
+        <f t="shared" ref="G4:G10" si="1">"INSERT INTO SETTING VALUES("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"');"</f>
         <v>INSERT INTO SETTING VALUES(2,'g_configPath','D:/jee-photon/lgdacom','conf 파일 root');</v>
       </c>
     </row>
@@ -35036,29 +35052,29 @@
         <v>INSERT INTO SETTING VALUES(4,'g_LGD_RETURNURL','http://localhost:8080/paymentGateway/returnUrl.do','인증결과 수신 및 전달 페이지');</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>1132</v>
+        <v>1443</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1445</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1133</v>
+        <v>1446</v>
       </c>
       <c r="F7" s="43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SETTING VALUES(5,'g_CST_MID','qpeople','상점ID');</v>
+        <f t="shared" ref="F7" si="2">"INSERT INTO SETTING VALUES("&amp;A7&amp;",'"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;E7&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(5,'g_LGD_AUTH_RETURNURL','http://www.qlearning.co.kr/guest/AuthOnlyReturnurl.do','핸드폰 인증결과 수신 및 전달 페이지');</v>
       </c>
       <c r="G7" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO SETTING VALUES(5,'g_CST_MID','qpeople','상점ID');</v>
+        <f t="shared" ref="G7" si="3">"INSERT INTO SETTING VALUES("&amp;A7&amp;",'"&amp;B7&amp;"','"&amp;D7&amp;"','"&amp;E7&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(5,'g_LGD_AUTH_RETURNURL','http://localhost:8080/guest/AuthOnlyReturnurl.do','핸드폰 인증결과 수신 및 전달 페이지');</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -35066,74 +35082,74 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>1074</v>
+        <v>1132</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1133</v>
       </c>
       <c r="F8" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SETTING VALUES(6,'g_CST_PLATFORM','test','개발/운영');</v>
+        <v>INSERT INTO SETTING VALUES(6,'g_CST_MID','qpeople','상점ID');</v>
       </c>
       <c r="G8" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO SETTING VALUES(6,'g_CST_PLATFORM','test','개발/운영');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>INSERT INTO SETTING VALUES(6,'g_CST_MID','qpeople','상점ID');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1124</v>
+        <v>1130</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>1074</v>
       </c>
       <c r="F9" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO SETTING VALUES(7,'g_xpay_js','https://xpay.uplus.co.kr/xpay/js/xpay_crossplatform.js','결재 처리 js');</v>
+        <v>INSERT INTO SETTING VALUES(7,'g_CST_PLATFORM','test','개발/운영');</v>
       </c>
       <c r="G9" s="43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO SETTING VALUES(7,'g_xpay_js','https://pretest.uplus.co.kr:9443/xpay/js/xpay_crossplatform.js','결재 처리 js');</v>
+        <v>INSERT INTO SETTING VALUES(7,'g_CST_PLATFORM','test','개발/운영');</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>857</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>858</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>859</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>1071</v>
+      <c r="B10" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1124</v>
       </c>
       <c r="F10" s="43" t="str">
-        <f t="shared" ref="F10:F20" si="2">"INSERT INTO SETTING VALUES("&amp;A10&amp;",'"&amp;B10&amp;"','"&amp;C10&amp;"','"&amp;E10&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(8,'PICTURE_FOLDER','/home/hosting_users/qlearning/cImage/teacher','강사 사진 폴더');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO SETTING VALUES(8,'g_xpay_js','https://xpay.uplus.co.kr/xpay/js/xpay_crossplatform.js','결재 처리 js');</v>
       </c>
       <c r="G10" s="43" t="str">
-        <f t="shared" ref="G10:G20" si="3">"INSERT INTO SETTING VALUES("&amp;A10&amp;",'"&amp;B10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(8,'PICTURE_FOLDER','D:\\lms\\lms_image\\teacher','강사 사진 폴더');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO SETTING VALUES(8,'g_xpay_js','https://pretest.uplus.co.kr:9443/xpay/js/xpay_crossplatform.js','결재 처리 js');</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -35141,24 +35157,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="F11" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SETTING VALUES(9,'ATTACH_FOLDER','/home/hosting_users/qlearning/lms_attach','첨부파일 폴더');</v>
+        <f t="shared" ref="F11:F21" si="4">"INSERT INTO SETTING VALUES("&amp;A11&amp;",'"&amp;B11&amp;"','"&amp;C11&amp;"','"&amp;E11&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(9,'PICTURE_FOLDER','/home/hosting_users/qlearning/cImage/teacher','강사 사진 폴더');</v>
       </c>
       <c r="G11" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO SETTING VALUES(9,'ATTACH_FOLDER','d:\\lms\\lms_attach','첨부파일 폴더');</v>
+        <f t="shared" ref="G11:G21" si="5">"INSERT INTO SETTING VALUES("&amp;A11&amp;",'"&amp;B11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(9,'PICTURE_FOLDER','D:\\lms\\lms_image\\teacher','강사 사진 폴더');</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -35166,24 +35182,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>983</v>
+        <v>860</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>984</v>
+        <v>861</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>985</v>
+        <v>862</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F12" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SETTING VALUES(10,'COMPANY_FOLDER','/home/hosting_users/qlearning/cImage/company','회사 이미지 폴더');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SETTING VALUES(10,'ATTACH_FOLDER','/home/hosting_users/qlearning/lms_attach','첨부파일 폴더');</v>
       </c>
       <c r="G12" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO SETTING VALUES(10,'COMPANY_FOLDER','D:\\lms\\lms_image\\company','회사 이미지 폴더');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO SETTING VALUES(10,'ATTACH_FOLDER','d:\\lms\\lms_attach','첨부파일 폴더');</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -35191,24 +35207,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F13" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SETTING VALUES(11,'USER_FOLDER','/home/hosting_users/qlearning/cImage/user','사용자 이미지 폴더');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SETTING VALUES(11,'COMPANY_FOLDER','/home/hosting_users/qlearning/cImage/company','회사 이미지 폴더');</v>
       </c>
       <c r="G13" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO SETTING VALUES(11,'USER_FOLDER','D:\\lms\\lms_image\\user','사용자 이미지 폴더');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO SETTING VALUES(11,'COMPANY_FOLDER','D:\\lms\\lms_image\\company','회사 이미지 폴더');</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -35216,24 +35232,24 @@
         <v>12</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>863</v>
+        <v>1009</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>864</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>865</v>
+        <v>1011</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="F14" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SETTING VALUES(12,'COURSE_IMG_FOLDER','/home/hosting_users/qlearning/cImage/contents','컨텐츠 폴더');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SETTING VALUES(12,'USER_FOLDER','/home/hosting_users/qlearning/cImage/user','사용자 이미지 폴더');</v>
       </c>
       <c r="G14" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO SETTING VALUES(12,'COURSE_IMG_FOLDER','D:\\lms\\lms_image\\contents','컨텐츠 폴더');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO SETTING VALUES(12,'USER_FOLDER','D:\\lms\\lms_image\\user','사용자 이미지 폴더');</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -35241,24 +35257,24 @@
         <v>13</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>1284</v>
+        <v>863</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>1285</v>
+        <v>864</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>1286</v>
+        <v>865</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>1287</v>
+        <v>1070</v>
       </c>
       <c r="F15" s="43" t="str">
-        <f>"INSERT INTO SETTING VALUES("&amp;A15&amp;",'"&amp;B15&amp;"','"&amp;C15&amp;"','"&amp;E15&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(13,'EVENT_IMG_FOLDER','/home/hosting_users/qlearning/cImage/event','이벤트 이미지 폴더');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SETTING VALUES(13,'COURSE_IMG_FOLDER','/home/hosting_users/qlearning/cImage/contents','컨텐츠 폴더');</v>
       </c>
       <c r="G15" s="43" t="str">
-        <f>"INSERT INTO SETTING VALUES("&amp;A15&amp;",'"&amp;B15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(13,'EVENT_IMG_FOLDER','D:\\lms\\lms_image\\event','이벤트 이미지 폴더');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO SETTING VALUES(13,'COURSE_IMG_FOLDER','D:\\lms\\lms_image\\contents','컨텐츠 폴더');</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -35266,24 +35282,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="F16" s="43" t="str">
-        <f t="shared" ref="F16" si="4">"INSERT INTO SETTING VALUES("&amp;A16&amp;",'"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;E16&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(14,'NOTICE_IMG_FOLDER','/home/hosting_users/qlearning/cImage/notice','공지 이미지 폴더');</v>
+        <f>"INSERT INTO SETTING VALUES("&amp;A16&amp;",'"&amp;B16&amp;"','"&amp;C16&amp;"','"&amp;E16&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(14,'EVENT_IMG_FOLDER','/home/hosting_users/qlearning/cImage/event','이벤트 이미지 폴더');</v>
       </c>
       <c r="G16" s="43" t="str">
-        <f t="shared" ref="G16" si="5">"INSERT INTO SETTING VALUES("&amp;A16&amp;",'"&amp;B16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(14,'NOTICE_IMG_FOLDER','D:\\lms\\lms_image\\notice','공지 이미지 폴더');</v>
+        <f>"INSERT INTO SETTING VALUES("&amp;A16&amp;",'"&amp;B16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(14,'EVENT_IMG_FOLDER','D:\\lms\\lms_image\\event','이벤트 이미지 폴더');</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -35291,74 +35307,74 @@
         <v>15</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>1383</v>
+        <v>1288</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>1384</v>
+        <v>1289</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>1386</v>
+        <v>1290</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>1382</v>
+        <v>1291</v>
       </c>
       <c r="F17" s="43" t="str">
         <f t="shared" ref="F17" si="6">"INSERT INTO SETTING VALUES("&amp;A17&amp;",'"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;E17&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(15,'MAIN_IMG_FOLDER','/home/hosting_users/qlearning/cImage/main','메인페이지 이미지 폴더');</v>
+        <v>INSERT INTO SETTING VALUES(15,'NOTICE_IMG_FOLDER','/home/hosting_users/qlearning/cImage/notice','공지 이미지 폴더');</v>
       </c>
       <c r="G17" s="43" t="str">
         <f t="shared" ref="G17" si="7">"INSERT INTO SETTING VALUES("&amp;A17&amp;",'"&amp;B17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(15,'MAIN_IMG_FOLDER','D:\\lms\\lms_image\\main','메인페이지 이미지 폴더');</v>
+        <v>INSERT INTO SETTING VALUES(15,'NOTICE_IMG_FOLDER','D:\\lms\\lms_image\\notice','공지 이미지 폴더');</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1068</v>
+      <c r="B18" s="43" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>1382</v>
       </c>
       <c r="F18" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SETTING VALUES(16,'ZIPCODE_URL','https://www.epost.go.kr/search.RetrieveIntegrationNewZipCdList.comm','우편번호 검색');</v>
+        <f t="shared" ref="F18" si="8">"INSERT INTO SETTING VALUES("&amp;A18&amp;",'"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;E18&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(16,'MAIN_IMG_FOLDER','/home/hosting_users/qlearning/cImage/main','메인페이지 이미지 폴더');</v>
       </c>
       <c r="G18" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO SETTING VALUES(16,'ZIPCODE_URL','https://www.epost.go.kr/search.RetrieveIntegrationNewZipCdList.comm','우편번호 검색');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G18" si="9">"INSERT INTO SETTING VALUES("&amp;A18&amp;",'"&amp;B18&amp;"','"&amp;D18&amp;"','"&amp;E18&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(16,'MAIN_IMG_FOLDER','D:\\lms\\lms_image\\main','메인페이지 이미지 폴더');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C19" s="14">
-        <v>2015</v>
-      </c>
-      <c r="D19" s="14">
-        <v>2015</v>
+        <v>1003</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1002</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1030</v>
+        <v>1068</v>
       </c>
       <c r="F19" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SETTING VALUES(17,'FROM_YEAR','2015','조건 시작연도');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SETTING VALUES(17,'ZIPCODE_URL','https://www.epost.go.kr/search.RetrieveIntegrationNewZipCdList.comm','우편번호 검색');</v>
       </c>
       <c r="G19" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO SETTING VALUES(17,'FROM_YEAR','2015','조건 시작연도');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO SETTING VALUES(17,'ZIPCODE_URL','https://www.epost.go.kr/search.RetrieveIntegrationNewZipCdList.comm','우편번호 검색');</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -35366,24 +35382,24 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C20" s="14">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="D20" s="14">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F20" s="43" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO SETTING VALUES(18,'TO_YEAR','2025','조건 종료연도');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SETTING VALUES(18,'FROM_YEAR','2015','조건 시작연도');</v>
       </c>
       <c r="G20" s="43" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO SETTING VALUES(18,'TO_YEAR','2025','조건 종료연도');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO SETTING VALUES(18,'FROM_YEAR','2015','조건 시작연도');</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -35391,24 +35407,24 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>1211</v>
+        <v>1028</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2025</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2025</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1213</v>
+        <v>1029</v>
       </c>
       <c r="F21" s="43" t="str">
-        <f t="shared" ref="F21:F22" si="8">"INSERT INTO SETTING VALUES("&amp;A21&amp;",'"&amp;B21&amp;"','"&amp;C21&amp;"','"&amp;E21&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(19,'BIRTH_FROM_YEAR','1950','생일 시작연도');</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO SETTING VALUES(19,'TO_YEAR','2025','조건 종료연도');</v>
       </c>
       <c r="G21" s="43" t="str">
-        <f t="shared" ref="G21:G22" si="9">"INSERT INTO SETTING VALUES("&amp;A21&amp;",'"&amp;B21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(19,'BIRTH_FROM_YEAR','1950','생일 시작연도');</v>
+        <f t="shared" si="5"/>
+        <v>INSERT INTO SETTING VALUES(19,'TO_YEAR','2025','조건 종료연도');</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -35416,74 +35432,99 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F22" s="43" t="str">
-        <f t="shared" si="8"/>
-        <v>INSERT INTO SETTING VALUES(20,'BIRTH_TO_YEAR','2000','생일 종료연도');</v>
+        <f t="shared" ref="F22:F23" si="10">"INSERT INTO SETTING VALUES("&amp;A22&amp;",'"&amp;B22&amp;"','"&amp;C22&amp;"','"&amp;E22&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(20,'BIRTH_FROM_YEAR','1950','생일 시작연도');</v>
       </c>
       <c r="G22" s="43" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO SETTING VALUES(20,'BIRTH_TO_YEAR','2000','생일 종료연도');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G22:G23" si="11">"INSERT INTO SETTING VALUES("&amp;A22&amp;",'"&amp;B22&amp;"','"&amp;D22&amp;"','"&amp;E22&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(20,'BIRTH_FROM_YEAR','1950','생일 시작연도');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1395</v>
+        <v>1210</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1396</v>
+        <v>1212</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1396</v>
+        <v>1212</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1397</v>
+        <v>1214</v>
       </c>
       <c r="F23" s="43" t="str">
-        <f t="shared" ref="F23" si="10">"INSERT INTO SETTING VALUES("&amp;A23&amp;",'"&amp;B23&amp;"','"&amp;C23&amp;"','"&amp;E23&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(21,'QUEST_PROGRESS_RATIO','80','설문지 작성을 위한 진도율');</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO SETTING VALUES(21,'BIRTH_TO_YEAR','2000','생일 종료연도');</v>
       </c>
       <c r="G23" s="43" t="str">
-        <f t="shared" ref="G23" si="11">"INSERT INTO SETTING VALUES("&amp;A23&amp;",'"&amp;B23&amp;"','"&amp;D23&amp;"','"&amp;E23&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(21,'QUEST_PROGRESS_RATIO','80','설문지 작성을 위한 진도율');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>INSERT INTO SETTING VALUES(21,'BIRTH_TO_YEAR','2000','생일 종료연도');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F24" s="43" t="str">
         <f t="shared" ref="F24" si="12">"INSERT INTO SETTING VALUES("&amp;A24&amp;",'"&amp;B24&amp;"','"&amp;C24&amp;"','"&amp;E24&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(22,'AGAIN_STUDY_DAY','365','재학습 가능일 일수');</v>
+        <v>INSERT INTO SETTING VALUES(22,'QUEST_PROGRESS_RATIO','80','설문지 작성을 위한 진도율');</v>
       </c>
       <c r="G24" s="43" t="str">
         <f t="shared" ref="G24" si="13">"INSERT INTO SETTING VALUES("&amp;A24&amp;",'"&amp;B24&amp;"','"&amp;D24&amp;"','"&amp;E24&amp;"');"</f>
-        <v>INSERT INTO SETTING VALUES(22,'AGAIN_STUDY_DAY','365','재학습 가능일 일수');</v>
+        <v>INSERT INTO SETTING VALUES(22,'QUEST_PROGRESS_RATIO','80','설문지 작성을 위한 진도율');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F25" s="43" t="str">
+        <f t="shared" ref="F25" si="14">"INSERT INTO SETTING VALUES("&amp;A25&amp;",'"&amp;B25&amp;"','"&amp;C25&amp;"','"&amp;E25&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(23,'AGAIN_STUDY_DAY','365','재학습 가능일 일수');</v>
+      </c>
+      <c r="G25" s="43" t="str">
+        <f t="shared" ref="G25" si="15">"INSERT INTO SETTING VALUES("&amp;A25&amp;",'"&amp;B25&amp;"','"&amp;D25&amp;"','"&amp;E25&amp;"');"</f>
+        <v>INSERT INTO SETTING VALUES(23,'AGAIN_STUDY_DAY','365','재학습 가능일 일수');</v>
       </c>
     </row>
   </sheetData>
